--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006551</t>
+          <t>008283</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中庚价值领航混合</t>
+          <t>易方达金融行业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008283</t>
+          <t>006551</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达金融行业股票</t>
+          <t>中庚价值领航混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>23.38</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166024</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中欧恒利三年定期开放混合</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>99.15</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>393001</t>
+          <t>166024</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中海优势精选灵活配置混合</t>
+          <t>中欧恒利三年定期开放混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>76.79</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001751</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商信用增强债券A</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001752</t>
+          <t>004836</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华商信用增强债券C</t>
+          <t>中融鑫价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.42</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002159</t>
+          <t>004837</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>东吴国企改革主题灵活配置混合</t>
+          <t>中融鑫价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.26</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>8</v>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>004848</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>中欧睿泓定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>96.22</t>
+          <t>2.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004848</t>
+          <t>003900</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>58.31</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004836</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融鑫价值灵活配置混合A</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>87.74</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004837</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>中融鑫价值灵活配置混合C</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>87.74</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003900</t>
+          <t>002159</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+          <t>东吴国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.94</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>001751</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>华商信用增强债券A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>75.31</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>001752</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>华商信用增强债券C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>75.31</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>2</v>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +1039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -910,15 +1060,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004696</t>
+          <t>008283</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东兴量化优享灵活配置混合</t>
+          <t>易方达金融行业股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>25.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0132</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005576</t>
+          <t>450004</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>华泰柏瑞新金融地产灵活配置混合</t>
+          <t>国富深化价值混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.62</t>
+          <t>5.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>80.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1853</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005270</t>
+          <t>393001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>太平改革红利精选灵活配置混合</t>
+          <t>中海优势精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.68</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>71.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006323</t>
+          <t>159962</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合A</t>
+          <t>华夏中证四川国企改革ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006324</t>
+          <t>001403</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>合煦智远嘉选混合C</t>
+          <t>招商国企改革主题混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.50</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>393001</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中海优势精选灵活配置混合</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>71.95</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.26</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1</v>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1073</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>450004</t>
+          <t>005270</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国富深化价值混合</t>
+          <t>太平改革红利精选灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>80.12</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001403</t>
+          <t>006323</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商国企改革主题混合</t>
+          <t>合煦智远嘉选混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001628</t>
+          <t>005576</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商体育文化休闲股票</t>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.88</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>159962</t>
+          <t>006324</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华夏中证四川国企改革ETF</t>
+          <t>合煦智远嘉选混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>95.88</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>65.73</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>001628</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>招商体育文化休闲股票</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002159</t>
+          <t>003059</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>东吴国企改革主题灵活配置混合</t>
+          <t>长信先利半年定期开放混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.60</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003059</t>
+          <t>002159</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长信先利半年定期开放混合A</t>
+          <t>东吴国企改革主题灵活配置混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008041</t>
+          <t>004696</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长信先利半年定期开放混合C</t>
+          <t>东兴量化优享灵活配置混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>29.00</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -1350,26 +1660,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008283</t>
+          <t>008041</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达金融行业股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.79</t>
-        </is>
-      </c>
+          <t>长信先利半年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>7.97</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>29.00</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1668,7 +1669,6 @@
           <t>长信先利半年定期开放混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>29.00</t>
@@ -1684,6 +1684,974 @@
       </c>
       <c r="H17" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6579</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6419</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5355</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>48.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5114</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信银利精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.86</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2782</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>450004</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国富深化价值混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005270</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>太平改革红利精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0479</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001267</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰达宏利蓝筹价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004696</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>东兴量化优享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2657,4 +2658,1200 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8796</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4376</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2544</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9848</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>74.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8237</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.7890</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>19.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9810</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>65.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8870</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1292</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>73.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005502</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华泰紫金智能量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>080007</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长盛同鑫行业配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.06</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3854,4 +3855,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3863,7 +3864,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3874,17 +3875,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3894,14 +3915,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>30</v>
-      </c>
-      <c r="D2" t="n">
-        <v>18.07</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7229</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -3910,14 +3953,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.48</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0498</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -3926,14 +3991,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.95</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9149</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3942,13 +4029,1823 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.8937</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>79.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5533</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8152</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.6485</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.98</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8963</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7702</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011516</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5157</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000414</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>68.08</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2034</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1937</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1887</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.18</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1390</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002581</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1158</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001189</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广发聚宝混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>33.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000932</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007848</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚宝混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011517</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实浦盈一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22.99</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004142</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商盛合灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>32.80</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>79.80</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004335</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华宝新飞跃灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>96.69</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>27.58</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000933</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>前海开源睿远稳健增利混合 - C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.49</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005960</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时量化价值股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002582</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰凯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005961</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时量化价值股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>48</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>14</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5744,7 +5745,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5755,17 +5756,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5775,14 +5796,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>48</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.15</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>84.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9934</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -5791,14 +5834,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>18.07</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>71.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -5807,14 +5872,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>24</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.48</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>50.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.7672</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -5823,14 +5910,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.95</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>68.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.4724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -5839,13 +5948,3015 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3670</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5170</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4546</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>35.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4544</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3659</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.1751</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>48.06</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8167</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>100026</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国天合稳健混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6469</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1164</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8446</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>10.58</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7692</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501079</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>大成科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.7554</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6924</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>25.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6699</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6396</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012519</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.82</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6207</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5075</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>14.73</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4876</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4739</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银至诚精选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4174</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012473</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4010</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3000</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2921</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2827</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2746</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010371</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成成长进取混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2470</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2371</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>信达澳银蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1538</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银红利回报混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1528</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1354</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007657</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012520</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>大成核心趋势混合型证券投资基金D</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0971</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005945</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>162203</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>泰达宏利稳定混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>25.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010372</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成成长进取混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.17</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014053</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>太平睿庆混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0427</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>21.12</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>95.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012474</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>大成成长回报六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>71.30</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007658</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>东方红中证竞争力指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014054</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>太平睿庆混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>31.00</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005946</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信可转债优选债券C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>46.72</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21.35</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>78.22</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.37</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>80</v>
+      </c>
+      <c r="D2" t="n">
+        <v>50.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>48</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>24</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>14</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8839,7 +8840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8850,17 +8851,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8870,14 +8891,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>80</v>
-      </c>
-      <c r="D2" t="n">
-        <v>50.69</v>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.6389</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -8886,14 +8929,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>48</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.15</v>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>54.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1600</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8902,14 +8967,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>18.07</v>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.0596</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -8918,14 +9005,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>24</v>
-      </c>
-      <c r="D5" t="n">
-        <v>9.48</v>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.7141</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -8934,14 +9043,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.95</v>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>55.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.0161</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -8950,13 +9081,3751 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>51.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8488</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>34.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>30.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.2929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>25.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2612</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>52.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0176</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>29.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9643</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新金融股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>59.50</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.8148</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>58.35</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.7213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3421</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>29.44</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3248</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2213</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0989</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8868</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8571</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8103</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6530</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6341</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华启航两年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.16</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5594</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.68</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5156</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5124</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>75.16</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4512</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005392</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4184</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009911</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长信价值蓝筹两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4034</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3909</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2621</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000880</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国研究精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.98</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161610</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.97</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1687</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>88.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.40</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1437</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1342</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1249</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1228</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>65.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信战略转型主题股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1067</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>51.60</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>84.62</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001765</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>25.04</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>96.21</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.99</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>83.07</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002955</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001770</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>前海开源嘉鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006354</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国泰民裕进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>71.88</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>57.87</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>27.92</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001830</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通跨界成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005067</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009270</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>融通逆向策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012891</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>27.62</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>006084</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通研究优选混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009241</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>融通领先成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D3" t="n">
+        <v>50.69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>48</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>18.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>24</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>14</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.47</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D2" t="n">
-        <v>56.47</v>
+        <v>61.64</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D3" t="n">
-        <v>50.69</v>
+        <v>56.47</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D4" t="n">
-        <v>26.15</v>
+        <v>50.69</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D5" t="n">
-        <v>18.07</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>9.48</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D7" t="n">
-        <v>2.95</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>14</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.47</v>
       </c>
     </row>
@@ -600,6 +617,6060 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H159"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1594</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8558</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.68</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.3154</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>46.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9816</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8123</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6902</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6725</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2621</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2272</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002340</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国价值优势混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1247</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>26.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9810</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.8257</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银新金融股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>44.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4488</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.4057</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>36.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.3718</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010041</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>40.43</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.3665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>450009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国富中小盘股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1280</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>73.75</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1192</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000311</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>46.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0332</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9842</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.9693</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.82</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.9676</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7578</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010549</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国均衡策略混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>23.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.21</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6225</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>74.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5796</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5528</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5401</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5130</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4373</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4000</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.46</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3493</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162209</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利市值优选混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3343</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3091</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001974</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城量化新动力股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.90</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2899</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2663</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009334</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>9.48</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2152</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2074</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010042</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实港股优势混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>64.93</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1721</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1457</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000082</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实研究阿尔法股票</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>83.37</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1311</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1160</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1016</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004119</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0833</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华创新动力混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>40.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>9.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0663</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014164</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国融享18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008895</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信量化对冲策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>63.24</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008184</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005248</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新华沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>68.15</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005326</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007518</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>009043</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>九泰久信量化股票</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>48.81</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>23.33</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003958</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>26.38</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001336</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003957</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>安信量化精选沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>68.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007519</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>东方阿尔法优选混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>009595</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>山西证券裕桓一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006279</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>001392</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>9.73</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005325</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>景顺长城泰恒回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>016134</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>001393</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>国富金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.42</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004988</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人保双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>65.79</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006957</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>015679</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>景顺长城沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>519222</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>35.39</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>519221</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>海富通欣益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>23.65</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>001337</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>鹏华弘益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.50</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>006911</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长江量化匠心甄选股票A</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>70.40</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>004989</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>人保双利优选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>25.48</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>大摩量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>016399</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>006280</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>中金瑞祥灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>70.27</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4451,7 +10522,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7545,7 +13616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9425,7 +15496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10621,7 +16692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11589,7 +17660,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12246,7 +18317,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
+++ b/数据整理/stocks/A股/上证主板/601838-成都银行.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>61.64</v>
+        <v>56.95</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>100</v>
+        <v>158</v>
       </c>
       <c r="D3" t="n">
-        <v>56.47</v>
+        <v>61.64</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D4" t="n">
-        <v>50.69</v>
+        <v>56.47</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="D5" t="n">
-        <v>26.15</v>
+        <v>50.69</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D6" t="n">
-        <v>18.07</v>
+        <v>26.15</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>9.48</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D8" t="n">
-        <v>2.95</v>
+        <v>9.48</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>14</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.47</v>
       </c>
     </row>
@@ -616,7 +633,6079 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8615</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006551</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中庚价值领航混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7388</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159962</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证四川国企改革ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>96.22</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1470</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧恒利三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1142</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0903</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004848</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧睿泓定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>58.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0750</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002159</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东吴国企改革主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001751</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商信用增强债券A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001752</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商信用增强债券C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H144"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012533</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.6093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010273</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1020</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012344</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>48.40</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.7878</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005267</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实价值精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>47.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.6314</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010379</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5708</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010190</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实价值发现三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.4993</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>37.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3863</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011518</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实价值臻选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1157</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0688</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>070019</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9109</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001054</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银新金融股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5773</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011932</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银战略远见混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5179</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000991</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银战略转型股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>34.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4203</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2792</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010696</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2466</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011194</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0263</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011165</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国兴远优选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0169</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009887</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9059</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15.33</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7972</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159623</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时成渝经济圈ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7869</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008283</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达金融行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7654</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012389</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>信澳品质回报6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6642</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001186</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国文体健康股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6132</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011195</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发睿铭两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6047</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009888</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发稳健优选六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.60</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>64.90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5586</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012119</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.57</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5372</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009984</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华启航混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012578</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富国红利混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4583</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005937</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4209</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005938</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信精选金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4072</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011186</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3698</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3449</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010274</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3250</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002031</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏策略混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>73.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2775</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2554</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008132</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华价值驱动混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013624</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011124</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012534</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实价值驱动一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005662</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2168</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006652</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国金融地产行业混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1710</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>012577</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010380</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发均衡优选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.94</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>610005</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信澳红利回报混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.00</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1660</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005663</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>嘉实金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009988</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信澳蓝筹精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011830</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国天恒混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.97</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014158</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1398</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>013355</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>工银新金融股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1353</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011933</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>工银战略远见混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1327</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008704</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>004604</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1286</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>561990</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商沪深300增强策略ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011473</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银战略转型股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1193</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>393001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中海优势精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1169</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012576</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国诚益回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012579</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>富国红利混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1031</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009782</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>015559</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>长江启航混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>015838</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>广发招利混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>165310</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>004050</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0792</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006021</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>009783</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国兴泉回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>74.76</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012120</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>工银瑞信核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013625</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实价值创造三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>005732</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国臻选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>76.07</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005576</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0515</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>004871</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中银金融地产混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002222</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>嘉实新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>26.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011125</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国文体健康股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001755</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉实新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012345</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉实领先优势混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008705</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>广发高股息优享混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>75.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015839</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>广发招利混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001688</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004605</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>富国新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>003842</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012245</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007044</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012911</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004657</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011545</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001365</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成正向回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>005833</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003861</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>007502</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012244</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>84.95</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010312</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>中银金融地产混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008178</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>016374</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞新金融地产灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003233</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014159</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时浦惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>49.14</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>003862</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商兴福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>26.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005323</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>008179</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>同泰慧盈混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004658</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>金鹰民富收益混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>38.01</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001641</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007045</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>004218</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>前海开源裕和混合A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>34.51</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>016169</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>嘉实价值优势混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>004836</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>004769</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>申万菱信价值优先混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012912</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>同泰沪深300指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011546</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>长江沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003232</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>创金合信金融地产精选股票A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>42.64</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004837</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中融鑫价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>37.79</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>009208</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>建信沪深300指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>013491</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015560</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>长江启航混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>83.62</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>012302</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>009149</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富国绝对收益多策略定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>70.55</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012303</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>浦银安盛鑫福混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>24.97</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>004051</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>华夏新锦升灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>65.01</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005005</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005324</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>前海开源泽鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>34.74</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005006</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>中金金泽量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>69.88</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011831</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>富国天恒混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>27.17</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>013490</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>同泰金融精选股票A</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.75</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005834</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>工银瑞信红利优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>003843</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>中邮景泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>37.03</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002178</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>嘉实新起点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>014953</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>信澳至诚精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>014181</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6670,7 +12759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10522,7 +16611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13616,7 +19705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15496,7 +21585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16692,7 +22781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17660,7 +23749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -18315,592 +24404,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008283</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>易方达金融行业股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.36</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8615</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006551</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中庚价值领航混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>23.38</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7388</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>159962</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华夏中证四川国企改革ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>96.22</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1470</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>166024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中欧恒利三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.31</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.15</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1358</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>393001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中海优势精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>76.79</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1286</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>004836</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1142</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004837</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融鑫价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.74</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0903</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004848</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中欧睿泓定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.83</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>58.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0815</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003900</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0750</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006323</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>006324</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>合煦智远嘉选混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>75.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0315</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002159</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>东吴国企改革主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>93.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001751</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商信用增强债券A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001752</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商信用增强债券C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.42</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>